--- a/biology/Histoire de la zoologie et de la botanique/Carl_Ludwig_Koch/Carl_Ludwig_Koch.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Carl_Ludwig_Koch/Carl_Ludwig_Koch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Ludwig Koch est un naturaliste allemand, né le 21 septembre 1778 à Kusel et mort le 23 août 1857 à Nuremberg.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet inspecteur des eaux et forêts s'est spécialisé principalement dans l'étude des araignées, l'aranéologie. Il est le descripteur d'un très grand nombre d'espèces européennes ou exotiques.
 Sa principale œuvre est Die Arachniden (1831-1848) (16 volumes) commencée par Carl Wilhelm Hahn (1786-1836) et dont Koch signe les douze derniers volumes. Il a également terminé le chapitre sur les araignées de l'ouvrage de Georg Wolfgang Franz Panzer (1755-1829).
@@ -545,7 +559,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Die Pflanzenläuse Aphiden, getreu nach dem Leben abgebildet und beschrieben. J.L. Lotzbeck, Nürnberg 1854.
 Übersicht des Arachnidensystems. Zeh, Nürnberg 1837–50.
